--- a/biology/Botanique/Sartot/Sartot.xlsx
+++ b/biology/Botanique/Sartot/Sartot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Savoie, le sartot, sarto ou sartos[1], est une maison ou un cellier  construit dans une vigne et utilisé autrefois de façon temporaire pour la culture de la vigne[2]. C'est aussi, dans les zones non viticoles, une cave à provisions (pommes de terre, légumes, fruits)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Savoie, le sartot, sarto ou sartos, est une maison ou un cellier  construit dans une vigne et utilisé autrefois de façon temporaire pour la culture de la vigne. C'est aussi, dans les zones non viticoles, une cave à provisions (pommes de terre, légumes, fruits).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot pourrait provenir de certouz, terme de basse Savoie qui signifiait « cellier »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot pourrait provenir de certouz, terme de basse Savoie qui signifiait « cellier ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Savoie, le terme « sartot » désigne la petite habitation située dans les vignes remplaçant, pour certains usages, la maison familiale autrefois souvent éloignée de plusieurs heures de marche[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Savoie, le terme « sartot » désigne la petite habitation située dans les vignes remplaçant, pour certains usages, la maison familiale autrefois souvent éloignée de plusieurs heures de marche.
 Le sartot est généralement composé de trois niveaux : une cave semi-enterrée où l'on entreposait les tonneaux de vin, un étage ou l'on mangeait et dormait et un grenier qui servait de lieu de stockage. Dans cette maisonnette, il y a tous les ustensiles nécessaires à la vie quotidienne et à la fabrication et à la conservation du vin.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Hameau de sartots</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un exemple de hameau composé de sartots est celui des Grangettes, dans la commune de Saint-Jean-de-la-Porte, en Savoie[6]. Ce hameau est très ancien puisqu'en 1728 sur la mappe sarde, il avait pratiquement la physionomie actuelle. Le hameau était vide l'hiver et utilisé du printemps à l'automne pour le travail des vignes[6]. En usage jusqu'au début des années 1960, les sartots ont été abandonnés pour la plupart et vendus à des particuliers (Lyonnais, Marseillais, Parisiens, etc.) qui les ont transformés en résidences secondaires.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un exemple de hameau composé de sartots est celui des Grangettes, dans la commune de Saint-Jean-de-la-Porte, en Savoie. Ce hameau est très ancien puisqu'en 1728 sur la mappe sarde, il avait pratiquement la physionomie actuelle. Le hameau était vide l'hiver et utilisé du printemps à l'automne pour le travail des vignes. En usage jusqu'au début des années 1960, les sartots ont été abandonnés pour la plupart et vendus à des particuliers (Lyonnais, Marseillais, Parisiens, etc.) qui les ont transformés en résidences secondaires.
 Un sentier balisé part de Saint-Jean-de-la-Porte et fait le tour du hameau des Grangettes (la promenade des vignerons baujus). Il est agrémenté de plusieurs points où sont détaillés l'historique de la culture de la vigne et la vie d'autrefois dans les sartots.
 </t>
         </is>
